--- a/Planilha_Testes_MeLeva_SP9_David.xlsx
+++ b/Planilha_Testes_MeLeva_SP9_David.xlsx
@@ -5,18 +5,18 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Eler\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha de teste" sheetId="1" r:id="rId1"/>
     <sheet name="Log dos testes" sheetId="3" r:id="rId2"/>
     <sheet name="Resumo" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="272">
   <si>
     <t>ET01</t>
   </si>
@@ -847,7 +847,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1126,7 +1126,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1241,7 +1241,6 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1251,10 +1250,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1321,7 +1320,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -1460,7 +1459,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1521,7 +1520,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C767-4652-BD9F-3C507DE21563}"/>
             </c:ext>
@@ -1591,7 +1590,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1652,7 +1651,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C767-4652-BD9F-3C507DE21563}"/>
             </c:ext>
@@ -1722,7 +1721,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1783,7 +1782,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C767-4652-BD9F-3C507DE21563}"/>
             </c:ext>
@@ -1871,7 +1870,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1933,7 +1932,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C767-4652-BD9F-3C507DE21563}"/>
             </c:ext>
@@ -2196,7 +2195,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -2340,7 +2339,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2401,7 +2400,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DDF3-4423-BF00-83B9E2F19095}"/>
             </c:ext>
@@ -2471,7 +2470,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2532,7 +2531,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DDF3-4423-BF00-83B9E2F19095}"/>
             </c:ext>
@@ -2602,7 +2601,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2663,7 +2662,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-DDF3-4423-BF00-83B9E2F19095}"/>
             </c:ext>
@@ -2751,7 +2750,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2813,7 +2812,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-DDF3-4423-BF00-83B9E2F19095}"/>
             </c:ext>
@@ -3076,7 +3075,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -3215,7 +3214,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -3276,7 +3275,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A5C2-4E7D-9133-AF321644B0E3}"/>
             </c:ext>
@@ -3346,7 +3345,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -3407,7 +3406,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A5C2-4E7D-9133-AF321644B0E3}"/>
             </c:ext>
@@ -3477,7 +3476,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -3538,7 +3537,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A5C2-4E7D-9133-AF321644B0E3}"/>
             </c:ext>
@@ -3626,7 +3625,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -3688,7 +3687,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A5C2-4E7D-9133-AF321644B0E3}"/>
             </c:ext>
@@ -3951,7 +3950,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -4090,7 +4089,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -4151,7 +4150,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8790-4FB5-BB6A-BEE9C4B9F4E4}"/>
             </c:ext>
@@ -4221,7 +4220,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -4282,7 +4281,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8790-4FB5-BB6A-BEE9C4B9F4E4}"/>
             </c:ext>
@@ -4352,7 +4351,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -4413,7 +4412,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8790-4FB5-BB6A-BEE9C4B9F4E4}"/>
             </c:ext>
@@ -4501,7 +4500,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -4563,7 +4562,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-8790-4FB5-BB6A-BEE9C4B9F4E4}"/>
             </c:ext>
@@ -7327,8 +7326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:C39"/>
+    <sheetView showGridLines="0" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7351,7 +7350,7 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -7362,7 +7361,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
@@ -7371,7 +7370,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
@@ -7380,7 +7379,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
@@ -7389,7 +7388,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="51" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -7400,7 +7399,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="7" t="s">
         <v>29</v>
       </c>
@@ -7420,7 +7419,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="51" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -7431,7 +7430,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="7" t="s">
         <v>32</v>
       </c>
@@ -7440,7 +7439,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="48" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -7460,7 +7459,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="48" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -7471,7 +7470,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="3" t="s">
         <v>61</v>
       </c>
@@ -7480,7 +7479,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="2" t="s">
         <v>62</v>
       </c>
@@ -7520,7 +7519,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="47" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -7531,7 +7530,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="3" t="s">
         <v>71</v>
       </c>
@@ -7551,7 +7550,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="47" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -7562,7 +7561,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="3" t="s">
         <v>74</v>
       </c>
@@ -7571,7 +7570,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="3" t="s">
         <v>75</v>
       </c>
@@ -7602,7 +7601,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="48" t="s">
         <v>88</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -7633,7 +7632,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="48" t="s">
         <v>96</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -7653,7 +7652,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="48" t="s">
         <v>97</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -7684,7 +7683,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="48" t="s">
         <v>106</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -7695,7 +7694,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
+      <c r="A36" s="49"/>
       <c r="B36" s="3" t="s">
         <v>124</v>
       </c>
@@ -7713,7 +7712,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="48" t="s">
         <v>110</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -7733,7 +7732,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="48" t="s">
+      <c r="A40" s="47" t="s">
         <v>128</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -7744,7 +7743,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
+      <c r="A41" s="47"/>
       <c r="B41" s="3" t="s">
         <v>134</v>
       </c>
@@ -7753,7 +7752,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="47" t="s">
         <v>131</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -7764,7 +7763,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
+      <c r="A43" s="47"/>
       <c r="B43" s="3" t="s">
         <v>133</v>
       </c>
@@ -7773,7 +7772,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="48" t="s">
+      <c r="A44" s="47" t="s">
         <v>136</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -7784,7 +7783,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
+      <c r="A45" s="47"/>
       <c r="B45" s="3" t="s">
         <v>139</v>
       </c>
@@ -7793,7 +7792,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="48" t="s">
+      <c r="A46" s="47" t="s">
         <v>140</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -7804,7 +7803,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="48"/>
+      <c r="A47" s="47"/>
       <c r="B47" s="3" t="s">
         <v>142</v>
       </c>
@@ -7813,7 +7812,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="48" t="s">
+      <c r="A48" s="47" t="s">
         <v>144</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -7824,7 +7823,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
+      <c r="A49" s="47"/>
       <c r="B49" s="3" t="s">
         <v>149</v>
       </c>
@@ -7844,7 +7843,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="48" t="s">
+      <c r="A51" s="47" t="s">
         <v>188</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -7855,7 +7854,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="48"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="3" t="s">
         <v>187</v>
       </c>
@@ -7864,7 +7863,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="49" t="s">
+      <c r="A53" s="48" t="s">
         <v>189</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -7875,7 +7874,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="51"/>
+      <c r="A54" s="49"/>
       <c r="B54" s="11" t="s">
         <v>208</v>
       </c>
@@ -7893,7 +7892,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="49" t="s">
+      <c r="A56" s="48" t="s">
         <v>191</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -7913,7 +7912,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="49" t="s">
+      <c r="A58" s="48" t="s">
         <v>192</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -7924,7 +7923,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="51"/>
+      <c r="A59" s="49"/>
       <c r="B59" s="3" t="s">
         <v>215</v>
       </c>
@@ -7933,7 +7932,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="49" t="s">
+      <c r="A60" s="48" t="s">
         <v>193</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -7953,7 +7952,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="51" t="s">
+      <c r="A62" s="49" t="s">
         <v>196</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -7984,7 +7983,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="48" t="s">
+      <c r="A65" s="47" t="s">
         <v>200</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -7995,7 +7994,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A66" s="48"/>
+      <c r="A66" s="47"/>
       <c r="B66" s="3" t="s">
         <v>224</v>
       </c>
@@ -8004,7 +8003,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="49" t="s">
+      <c r="A67" s="48" t="s">
         <v>201</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -8035,7 +8034,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="48" t="s">
+      <c r="A70" s="47" t="s">
         <v>217</v>
       </c>
       <c r="B70" s="3" t="s">
@@ -8046,7 +8045,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="48"/>
+      <c r="A71" s="47"/>
       <c r="B71" s="3" t="s">
         <v>229</v>
       </c>
@@ -8055,7 +8054,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="48"/>
+      <c r="A72" s="47"/>
       <c r="B72" s="3" t="s">
         <v>230</v>
       </c>
@@ -8064,7 +8063,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="48" t="s">
+      <c r="A73" s="47" t="s">
         <v>250</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -8075,7 +8074,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="48"/>
+      <c r="A74" s="47"/>
       <c r="B74" s="3" t="s">
         <v>251</v>
       </c>
@@ -8084,7 +8083,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="48"/>
+      <c r="A75" s="47"/>
       <c r="B75" s="3" t="s">
         <v>254</v>
       </c>
@@ -8093,7 +8092,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="48" t="s">
+      <c r="A76" s="47" t="s">
         <v>256</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -8104,7 +8103,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="48"/>
+      <c r="A77" s="47"/>
       <c r="B77" s="3" t="s">
         <v>261</v>
       </c>
@@ -8113,35 +8112,28 @@
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="48" t="s">
+      <c r="A78" s="47" t="s">
         <v>258</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C78" s="47" t="s">
+      <c r="C78" s="46" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="48"/>
+      <c r="A79" s="47"/>
       <c r="B79" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C79" s="47" t="s">
+      <c r="C79" s="46" t="s">
         <v>264</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A58:A59"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A9:A10"/>
@@ -8154,6 +8146,14 @@
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A67:A68"/>
@@ -8162,7 +8162,6 @@
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="A53:A55"/>
     <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -8173,8 +8172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8453,10 +8452,16 @@
       <c r="A14" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="45"/>
+      <c r="B14" s="37" t="s">
+        <v>170</v>
+      </c>
       <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="46"/>
+      <c r="D14" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="38">
+        <v>42528</v>
+      </c>
       <c r="F14" s="44">
         <v>8</v>
       </c>
@@ -8505,10 +8510,18 @@
       <c r="A17" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="46"/>
+      <c r="B17" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="38">
+        <v>42528</v>
+      </c>
       <c r="F17" s="44">
         <v>8</v>
       </c>
@@ -8557,10 +8570,18 @@
       <c r="A20" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="46"/>
+      <c r="B20" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="38">
+        <v>42528</v>
+      </c>
       <c r="F20" s="44">
         <v>8</v>
       </c>
@@ -8609,10 +8630,18 @@
       <c r="A23" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="46"/>
+      <c r="B23" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="38">
+        <v>42528</v>
+      </c>
       <c r="F23" s="44">
         <v>8</v>
       </c>
@@ -8661,10 +8690,18 @@
       <c r="A26" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="46"/>
+      <c r="B26" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="38">
+        <v>42528</v>
+      </c>
       <c r="F26" s="44">
         <v>8</v>
       </c>
@@ -8713,10 +8750,18 @@
       <c r="A29" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="46"/>
+      <c r="B29" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="38">
+        <v>42528</v>
+      </c>
       <c r="F29" s="44">
         <v>8</v>
       </c>
@@ -9537,10 +9582,16 @@
         <v>234</v>
       </c>
       <c r="B73" s="45"/>
-      <c r="C73" s="44"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="44">
+      <c r="C73" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D73" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="42">
+        <v>42528</v>
+      </c>
+      <c r="F73" s="36">
         <v>8</v>
       </c>
     </row>
@@ -9898,21 +9949,41 @@
       <c r="A94" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="B94" s="37"/>
-      <c r="C94" s="36"/>
-      <c r="D94" s="36"/>
-      <c r="E94" s="42"/>
-      <c r="F94" s="36"/>
+      <c r="B94" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C94" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D94" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="E94" s="42">
+        <v>42542</v>
+      </c>
+      <c r="F94" s="36">
+        <v>9</v>
+      </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="B95" s="37"/>
-      <c r="C95" s="36"/>
-      <c r="D95" s="36"/>
-      <c r="E95" s="42"/>
-      <c r="F95" s="36"/>
+      <c r="B95" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C95" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="E95" s="42">
+        <v>42542</v>
+      </c>
+      <c r="F95" s="36">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -9944,84 +10015,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61" t="s">
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="58" t="s">
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="61" t="s">
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="63"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="62"/>
     </row>
     <row r="3" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="55" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="56" t="s">
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="55" t="s">
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="56" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="24" t="s">
         <v>181</v>
       </c>
